--- a/PythonResources/Data/Consumption/Sympheny/post_CD_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CD_hea.xlsx
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>85.57197502331381</v>
+        <v>85.5719750233138</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>213.5258057841673</v>
+        <v>213.5258057841672</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>157.268120728856</v>
+        <v>157.2681207288559</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>99.18822253001196</v>
+        <v>99.18822253001194</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -911,7 +911,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.750261858973044</v>
+        <v>0.7502618589730439</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>10.5948111186463</v>
+        <v>10.59481111864629</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>14.93800668319197</v>
+        <v>14.93800668319196</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>4.827014819430142</v>
+        <v>4.827014819430141</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>85.35723308115548</v>
+        <v>85.35723308115547</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>92.64561674162448</v>
+        <v>92.64561674162447</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>245.8938432222341</v>
+        <v>245.893843222234</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>208.0029934275889</v>
+        <v>208.0029934275888</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>495.8064465077949</v>
+        <v>495.8064465077948</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>149.1460349539967</v>
+        <v>149.1460349539966</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>229.3797180773837</v>
+        <v>229.3797180773836</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>43.81693376184227</v>
+        <v>43.81693376184226</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>53.18978518479009</v>
+        <v>53.18978518479008</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>134.1066696520837</v>
+        <v>134.1066696520836</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>129.1232897106862</v>
+        <v>129.1232897106861</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>4.648733845191671</v>
+        <v>4.64873384519167</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>0.9363385228399054</v>
+        <v>0.9363385228399052</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>0.1079113940744553</v>
+        <v>0.1079113940744552</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>0.4897428067178915</v>
+        <v>0.4897428067178914</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>0.0981535938422258</v>
+        <v>0.0981535938422257</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>12.70533289646211</v>
+        <v>12.7053328964621</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>7.40569413582436</v>
+        <v>7.405694135824358</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>169.4629355988116</v>
+        <v>169.4629355988115</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>80.85621290086991</v>
+        <v>80.85621290086989</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>226.9013716310752</v>
+        <v>226.9013716310751</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>333.1948963437044</v>
+        <v>333.1948963437043</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>326.677670507265</v>
+        <v>326.6776705072649</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>709.8532241624177</v>
+        <v>709.8532241624176</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>357.5218440498667</v>
+        <v>357.5218440498666</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>423.3106359582925</v>
+        <v>423.3106359582924</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>454.4095761548026</v>
+        <v>454.4095761548024</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>166.7902449546356</v>
+        <v>166.7902449546355</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>69.16763722025638</v>
+        <v>69.16763722025637</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>296.3566580757777</v>
+        <v>296.3566580757776</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>391.2252186456485</v>
+        <v>391.2252186456484</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>213.9184125396892</v>
+        <v>213.9184125396891</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>268.709508572621</v>
+        <v>268.7095085726209</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>465.9571612201369</v>
+        <v>465.9571612201368</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>468.2475113872753</v>
+        <v>468.2475113872752</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>542.6095983109731</v>
+        <v>542.609598310973</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>690.1676424955351</v>
+        <v>690.167642495535</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>482.8494828175381</v>
+        <v>482.849482817538</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>524.915727422833</v>
+        <v>524.9157274228329</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>509.6883423960668</v>
+        <v>509.6883423960667</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>513.0601246958656</v>
+        <v>513.0601246958655</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>456.3795996766841</v>
+        <v>456.379599676684</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>414.9630935641014</v>
+        <v>414.9630935641013</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>214.6579304143849</v>
+        <v>214.6579304143848</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>263.1877571332026</v>
+        <v>263.1877571332025</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>277.3234525409553</v>
+        <v>277.3234525409552</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>538.2586656710067</v>
+        <v>538.2586656710066</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>547.0159213772464</v>
+        <v>547.0159213772463</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>385.0041997079841</v>
+        <v>385.004199707984</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>673</v>
       </c>
       <c r="B673">
-        <v>471.3945082004208</v>
+        <v>471.3945082004207</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>377.9924751080114</v>
+        <v>377.9924751080113</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>343.5000653548417</v>
+        <v>343.5000653548416</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>655.0548013535193</v>
+        <v>655.0548013535192</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>262.6458130992204</v>
+        <v>262.6458130992203</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>317.5037850124644</v>
+        <v>317.5037850124643</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>294.9197307732211</v>
+        <v>294.919730773221</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>328.7662119571812</v>
+        <v>328.7662119571811</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>463.4042194023579</v>
+        <v>463.4042194023578</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>461.7759167115554</v>
+        <v>461.7759167115553</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>392.664783587553</v>
+        <v>392.6647835875528</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>834</v>
       </c>
       <c r="B834">
-        <v>362.8711817972406</v>
+        <v>362.8711817972405</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>572.1101290626241</v>
+        <v>572.110129062624</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>478.1327975213225</v>
+        <v>478.1327975213223</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>425.4758447919226</v>
+        <v>425.4758447919224</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>371.9522810012011</v>
+        <v>371.952281001201</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>244.9065718835852</v>
+        <v>244.9065718835851</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>379.2690925524202</v>
+        <v>379.2690925524201</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>435.9985604350582</v>
+        <v>435.9985604350581</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>672.1730807217286</v>
+        <v>672.1730807217284</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7583,7 +7583,7 @@
         <v>905</v>
       </c>
       <c r="B905">
-        <v>225.1313104788723</v>
+        <v>225.1313104788722</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>273.8704895634473</v>
+        <v>273.8704895634472</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>191.2868426929478</v>
+        <v>191.2868426929477</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>237.9060719043933</v>
+        <v>237.9060719043932</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>511.1818324090851</v>
+        <v>511.181832409085</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>922</v>
       </c>
       <c r="B922">
-        <v>219.3756883506021</v>
+        <v>219.375688350602</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>63.14287330363157</v>
+        <v>63.14287330363156</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>74.00997994807955</v>
+        <v>74.00997994807953</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>991</v>
       </c>
       <c r="B991">
-        <v>67.57220508407916</v>
+        <v>67.57220508407914</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>275.7915702218724</v>
+        <v>275.7915702218723</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>262.2465887996456</v>
+        <v>262.2465887996455</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>1036</v>
       </c>
       <c r="B1036">
-        <v>378.6178887045147</v>
+        <v>378.6178887045146</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>1052</v>
       </c>
       <c r="B1052">
-        <v>226.8204254101969</v>
+        <v>226.8204254101968</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>204.3259043732647</v>
+        <v>204.3259043732646</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>1056</v>
       </c>
       <c r="B1056">
-        <v>218.9771410451265</v>
+        <v>218.9771410451264</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>42.50227569661521</v>
+        <v>42.5022756966152</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="B1080">
-        <v>167.6019931175198</v>
+        <v>167.6019931175197</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>335.607369212653</v>
+        <v>335.6073692126529</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>262.9731705186948</v>
+        <v>262.9731705186947</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>380.5710313345694</v>
+        <v>380.5710313345693</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>191.917569667382</v>
+        <v>191.9175696673819</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>1172</v>
       </c>
       <c r="B1172">
-        <v>321.6947008653216</v>
+        <v>321.6947008653215</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>350.0812685990208</v>
+        <v>350.0812685990207</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>326.7686397576655</v>
+        <v>326.7686397576654</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>38.73429652107093</v>
+        <v>38.73429652107092</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>63.52197534569195</v>
+        <v>63.52197534569194</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>222.1359281061574</v>
+        <v>222.1359281061573</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>55.69926456753559</v>
+        <v>55.69926456753558</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>26.10607940701179</v>
+        <v>26.10607940701178</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10535,7 +10535,7 @@
         <v>1274</v>
       </c>
       <c r="B1274">
-        <v>74.88052959108971</v>
+        <v>74.8805295910897</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>85.41819185719704</v>
+        <v>85.41819185719703</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>90.88742496648733</v>
+        <v>90.88742496648732</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>0.8799164864768232</v>
+        <v>0.8799164864768231</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>0.6086440716711088</v>
+        <v>0.6086440716711087</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>94.41859392135498</v>
+        <v>94.41859392135497</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -11103,7 +11103,7 @@
         <v>1345</v>
       </c>
       <c r="B1345">
-        <v>7.430347271596553</v>
+        <v>7.430347271596552</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>25.7604753846704</v>
+        <v>25.76047538467039</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>86.84641788061576</v>
+        <v>86.84641788061575</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>95.28970365242714</v>
+        <v>95.28970365242712</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>92.62773940826614</v>
+        <v>92.62773940826612</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>147.683909403536</v>
+        <v>147.6839094035359</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>2.624383744873456</v>
+        <v>2.624383744873455</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -12007,7 +12007,7 @@
         <v>1458</v>
       </c>
       <c r="B1458">
-        <v>168.5431028368691</v>
+        <v>168.543102836869</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>333.0626040768527</v>
+        <v>333.0626040768526</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>56.0713768653239</v>
+        <v>56.07137686532389</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>44.6799693564922</v>
+        <v>44.67996935649219</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>290.1470689086211</v>
+        <v>290.147068908621</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12455,7 +12455,7 @@
         <v>1514</v>
       </c>
       <c r="B1514">
-        <v>235.0664186894919</v>
+        <v>235.0664186894918</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12519,7 +12519,7 @@
         <v>1522</v>
       </c>
       <c r="B1522">
-        <v>251.8280306036502</v>
+        <v>251.8280306036501</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1527</v>
       </c>
       <c r="B1527">
-        <v>93.31144483435919</v>
+        <v>93.31144483435918</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>97.39175567722563</v>
+        <v>97.39175567722562</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>88.78020609927724</v>
+        <v>88.78020609927722</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12687,7 +12687,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>551.3469251865838</v>
+        <v>551.3469251865837</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>44.77832399706695</v>
+        <v>44.77832399706694</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>27.58509757214091</v>
+        <v>27.5850975721409</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>6.709421823593509</v>
+        <v>6.709421823593508</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -13055,7 +13055,7 @@
         <v>1589</v>
       </c>
       <c r="B1589">
-        <v>30.23760441388431</v>
+        <v>30.2376044138843</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>93.94544541229529</v>
+        <v>93.94544541229527</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>95.77971842906891</v>
+        <v>95.77971842906889</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13239,7 +13239,7 @@
         <v>1612</v>
       </c>
       <c r="B1612">
-        <v>371.25456677946</v>
+        <v>371.2545667794599</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>99.71009412855621</v>
+        <v>99.71009412855619</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>216.3971722161622</v>
+        <v>216.3971722161621</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13487,7 +13487,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>57.27378872274367</v>
+        <v>57.27378872274366</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>33.08458440475221</v>
+        <v>33.0845844047522</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>318.0667744777328</v>
+        <v>318.0667744777327</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>9.149683688427974</v>
+        <v>9.149683688427972</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>96.93447693560233</v>
+        <v>96.93447693560232</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>73.64368188662723</v>
+        <v>73.64368188662722</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>50.49366351107312</v>
+        <v>50.4936635110731</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>202.2975597146895</v>
+        <v>202.2975597146894</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>193.4772937351377</v>
+        <v>193.4772937351376</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>66.18141917892046</v>
+        <v>66.18141917892045</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>49.17140025239279</v>
+        <v>49.17140025239278</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>154.4789167625498</v>
+        <v>154.4789167625497</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>39.36846708020944</v>
+        <v>39.36846708020943</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>300.7166759179425</v>
+        <v>300.7166759179424</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>142.9575527630445</v>
+        <v>142.9575527630444</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>274.4085679904295</v>
+        <v>274.4085679904294</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14631,7 +14631,7 @@
         <v>1786</v>
       </c>
       <c r="B1786">
-        <v>95.61999471299848</v>
+        <v>95.61999471299846</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14647,7 +14647,7 @@
         <v>1788</v>
       </c>
       <c r="B1788">
-        <v>50.69428529058874</v>
+        <v>50.69428529058872</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14719,7 +14719,7 @@
         <v>1797</v>
       </c>
       <c r="B1797">
-        <v>87.24527584139231</v>
+        <v>87.2452758413923</v>
       </c>
     </row>
     <row r="1798" spans="1:2">
@@ -14751,7 +14751,7 @@
         <v>1801</v>
       </c>
       <c r="B1801">
-        <v>174.3285830425581</v>
+        <v>174.328583042558</v>
       </c>
     </row>
     <row r="1802" spans="1:2">
@@ -14863,7 +14863,7 @@
         <v>1815</v>
       </c>
       <c r="B1815">
-        <v>34.56325381534532</v>
+        <v>34.56325381534531</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>28.02104924120978</v>
+        <v>28.02104924120977</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14967,7 +14967,7 @@
         <v>1828</v>
       </c>
       <c r="B1828">
-        <v>286.4637520947253</v>
+        <v>286.4637520947252</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>294.8836830354658</v>
+        <v>294.8836830354657</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>62.76676058616553</v>
+        <v>62.76676058616552</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>0.8000722127039263</v>
+        <v>0.8000722127039261</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>193.8946562012953</v>
+        <v>193.8946562012952</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>219.238443183197</v>
+        <v>219.2384431831969</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>37.35927754472118</v>
+        <v>37.35927754472117</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15263,7 +15263,7 @@
         <v>1865</v>
       </c>
       <c r="B1865">
-        <v>24.00817521662347</v>
+        <v>24.00817521662346</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>69.54675391586869</v>
+        <v>69.54675391586868</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>48.77842129665179</v>
+        <v>48.77842129665178</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>66.39673847102496</v>
+        <v>66.39673847102495</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15775,7 +15775,7 @@
         <v>1929</v>
       </c>
       <c r="B1929">
-        <v>99.40149032484581</v>
+        <v>99.4014903248458</v>
       </c>
     </row>
     <row r="1930" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>59.43539278259815</v>
+        <v>59.43539278259814</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>8.373291615647885</v>
+        <v>8.373291615647883</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15815,7 +15815,7 @@
         <v>1934</v>
       </c>
       <c r="B1934">
-        <v>3.165665438308254</v>
+        <v>3.165665438308253</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>1.671691858076247</v>
+        <v>1.671691858076246</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>406.213457704867</v>
+        <v>406.2134577048669</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>90.17121796220674</v>
+        <v>90.17121796220673</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>89.43092051854818</v>
+        <v>89.43092051854816</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>83.27642870665993</v>
+        <v>83.27642870665991</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>110.3128181652464</v>
+        <v>110.3128181652463</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16175,7 +16175,7 @@
         <v>1979</v>
       </c>
       <c r="B1979">
-        <v>37.57759202284079</v>
+        <v>37.57759202284078</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -16183,7 +16183,7 @@
         <v>1980</v>
       </c>
       <c r="B1980">
-        <v>31.65888758439714</v>
+        <v>31.65888758439713</v>
       </c>
     </row>
     <row r="1981" spans="1:2">
@@ -16223,7 +16223,7 @@
         <v>1985</v>
       </c>
       <c r="B1985">
-        <v>26.03813030055608</v>
+        <v>26.03813030055607</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>37.98569930559749</v>
+        <v>37.98569930559748</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16551,7 +16551,7 @@
         <v>2026</v>
       </c>
       <c r="B2026">
-        <v>230.0789357535531</v>
+        <v>230.078935753553</v>
       </c>
     </row>
     <row r="2027" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>57.14419270944762</v>
+        <v>57.14419270944761</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>38.03912615594545</v>
+        <v>38.03912615594544</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>98.61873274910602</v>
+        <v>98.61873274910599</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17407,7 +17407,7 @@
         <v>2133</v>
       </c>
       <c r="B2133">
-        <v>6.643562899785532</v>
+        <v>6.643562899785531</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17431,7 +17431,7 @@
         <v>2136</v>
       </c>
       <c r="B2136">
-        <v>74.26623510979321</v>
+        <v>74.2662351097932</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>146.812178391169</v>
+        <v>146.8121783911689</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>20.08264310219212</v>
+        <v>20.08264310219211</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>0.926508920203204</v>
+        <v>0.9265089202032036</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17751,7 +17751,7 @@
         <v>2176</v>
       </c>
       <c r="B2176">
-        <v>0.8466822306926266</v>
+        <v>0.8466822306926265</v>
       </c>
     </row>
     <row r="2177" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>0.7373022576434394</v>
+        <v>0.7373022576434393</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18295,7 +18295,7 @@
         <v>2244</v>
       </c>
       <c r="B2244">
-        <v>0.6959616569298699</v>
+        <v>0.6959616569298698</v>
       </c>
     </row>
     <row r="2245" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>0.6669886540478094</v>
+        <v>0.6669886540478093</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>0.2608915455452909</v>
+        <v>0.2608915455452908</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18399,7 +18399,7 @@
         <v>2257</v>
       </c>
       <c r="B2257">
-        <v>4.820930664667532</v>
+        <v>4.820930664667531</v>
       </c>
     </row>
     <row r="2258" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>22.36304936898875</v>
+        <v>22.36304936898874</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>0.2880656783920482</v>
+        <v>0.2880656783920481</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>38.95236481951807</v>
+        <v>38.95236481951806</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>65.09049154460747</v>
+        <v>65.09049154460746</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18815,7 +18815,7 @@
         <v>2309</v>
       </c>
       <c r="B2309">
-        <v>0.6389505477790784</v>
+        <v>0.6389505477790783</v>
       </c>
     </row>
     <row r="2310" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>0.6117271789978261</v>
+        <v>0.611727178997826</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -18983,7 +18983,7 @@
         <v>2330</v>
       </c>
       <c r="B2330">
-        <v>65.3079268096111</v>
+        <v>65.30792680961109</v>
       </c>
     </row>
     <row r="2331" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>5.311669326774795</v>
+        <v>5.311669326774794</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19031,7 +19031,7 @@
         <v>2336</v>
       </c>
       <c r="B2336">
-        <v>5.949588264497785</v>
+        <v>5.949588264497784</v>
       </c>
     </row>
     <row r="2337" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>0.6951088202073654</v>
+        <v>0.6951088202073653</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19079,7 +19079,7 @@
         <v>2342</v>
       </c>
       <c r="B2342">
-        <v>0.8327408413835063</v>
+        <v>0.8327408413835062</v>
       </c>
     </row>
     <row r="2343" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>30.64309457226576</v>
+        <v>30.64309457226575</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19319,7 +19319,7 @@
         <v>2372</v>
       </c>
       <c r="B2372">
-        <v>84.08229786450858</v>
+        <v>84.08229786450856</v>
       </c>
     </row>
     <row r="2373" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>77.31474833110698</v>
+        <v>77.31474833110697</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>6.700553493963617</v>
+        <v>6.700553493963616</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>15.88484007992634</v>
+        <v>15.88484007992633</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>108.9556061852057</v>
+        <v>108.9556061852056</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>6.962432981980235</v>
+        <v>6.962432981980234</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -20015,7 +20015,7 @@
         <v>2459</v>
       </c>
       <c r="B2459">
-        <v>0.5536082613208947</v>
+        <v>0.5536082613208946</v>
       </c>
     </row>
     <row r="2460" spans="1:2">
@@ -20119,7 +20119,7 @@
         <v>2472</v>
       </c>
       <c r="B2472">
-        <v>81.27883599217149</v>
+        <v>81.27883599217148</v>
       </c>
     </row>
     <row r="2473" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>6.283695109992492</v>
+        <v>6.283695109992491</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20303,7 +20303,7 @@
         <v>2495</v>
       </c>
       <c r="B2495">
-        <v>90.7421965439891</v>
+        <v>90.74219654398907</v>
       </c>
     </row>
     <row r="2496" spans="1:2">
@@ -20407,7 +20407,7 @@
         <v>2508</v>
       </c>
       <c r="B2508">
-        <v>0.873260843188824</v>
+        <v>0.8732608431888239</v>
       </c>
     </row>
     <row r="2509" spans="1:2">
@@ -20439,7 +20439,7 @@
         <v>2512</v>
       </c>
       <c r="B2512">
-        <v>0.7908228907237742</v>
+        <v>0.7908228907237741</v>
       </c>
     </row>
     <row r="2513" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>1.822632235118</v>
+        <v>1.822632235117999</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>0.4263450934925921</v>
+        <v>0.426345093492592</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20751,7 +20751,7 @@
         <v>2551</v>
       </c>
       <c r="B2551">
-        <v>98.51645388732359</v>
+        <v>98.51645388732356</v>
       </c>
     </row>
     <row r="2552" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>122.3918875591931</v>
+        <v>122.391887559193</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -21039,7 +21039,7 @@
         <v>2587</v>
       </c>
       <c r="B2587">
-        <v>7.606037497853255</v>
+        <v>7.606037497853254</v>
       </c>
     </row>
     <row r="2588" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>16.14812630892853</v>
+        <v>16.14812630892852</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21335,7 +21335,7 @@
         <v>2624</v>
       </c>
       <c r="B2624">
-        <v>52.65082754469187</v>
+        <v>52.65082754469186</v>
       </c>
     </row>
     <row r="2625" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>0.8093625646294909</v>
+        <v>0.8093625646294907</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>0.7366457785168379</v>
+        <v>0.7366457785168378</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>0.4756777414304563</v>
+        <v>0.4756777414304562</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>60.75906864368483</v>
+        <v>60.75906864368482</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21471,7 +21471,7 @@
         <v>2641</v>
       </c>
       <c r="B2641">
-        <v>97.3677941891047</v>
+        <v>97.36779418910466</v>
       </c>
     </row>
     <row r="2642" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>6.80717596161004</v>
+        <v>6.807175961610039</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21599,7 +21599,7 @@
         <v>2657</v>
       </c>
       <c r="B2657">
-        <v>5.90892758859391</v>
+        <v>5.908927588593909</v>
       </c>
     </row>
     <row r="2658" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>37.1590631339493</v>
+        <v>37.15906313394929</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21623,7 +21623,7 @@
         <v>2660</v>
       </c>
       <c r="B2660">
-        <v>50.64384776483512</v>
+        <v>50.64384776483511</v>
       </c>
     </row>
     <row r="2661" spans="1:2">
@@ -21631,7 +21631,7 @@
         <v>2661</v>
       </c>
       <c r="B2661">
-        <v>53.47901699284497</v>
+        <v>53.47901699284496</v>
       </c>
     </row>
     <row r="2662" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>88.53851920582439</v>
+        <v>88.53851920582437</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>96.84368352782505</v>
+        <v>96.84368352782502</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>99.83128896745801</v>
+        <v>99.83128896745797</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>71.14742000772536</v>
+        <v>71.14742000772534</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21991,7 +21991,7 @@
         <v>2706</v>
       </c>
       <c r="B2706">
-        <v>95.6654148625702</v>
+        <v>95.66541486257019</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>85.67755972641233</v>
+        <v>85.67755972641231</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>51.314892522058</v>
+        <v>51.31489252205799</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22143,7 +22143,7 @@
         <v>2725</v>
       </c>
       <c r="B2725">
-        <v>8.159156330539586</v>
+        <v>8.159156330539584</v>
       </c>
     </row>
     <row r="2726" spans="1:2">
@@ -22159,7 +22159,7 @@
         <v>2727</v>
       </c>
       <c r="B2727">
-        <v>5.355756003120621</v>
+        <v>5.35575600312062</v>
       </c>
     </row>
     <row r="2728" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>0.1251721059674539</v>
+        <v>0.1251721059674538</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>74.42011498935274</v>
+        <v>74.42011498935273</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22319,7 +22319,7 @@
         <v>2747</v>
       </c>
       <c r="B2747">
-        <v>2.660818336399834</v>
+        <v>2.660818336399833</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>0.7053340687462597</v>
+        <v>0.7053340687462596</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>6.069205208927413</v>
+        <v>6.069205208927412</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22447,7 +22447,7 @@
         <v>2763</v>
       </c>
       <c r="B2763">
-        <v>54.05988379147176</v>
+        <v>54.05988379147175</v>
       </c>
     </row>
     <row r="2764" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>265.0481720866248</v>
+        <v>265.0481720866247</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>67.1776291842485</v>
+        <v>67.17762918424849</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22511,7 +22511,7 @@
         <v>2771</v>
       </c>
       <c r="B2771">
-        <v>0.6166654259992698</v>
+        <v>0.6166654259992697</v>
       </c>
     </row>
     <row r="2772" spans="1:2">
@@ -22519,7 +22519,7 @@
         <v>2772</v>
       </c>
       <c r="B2772">
-        <v>0.6118678530963836</v>
+        <v>0.6118678530963835</v>
       </c>
     </row>
     <row r="2773" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>21.13725044268381</v>
+        <v>21.1372504426838</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>19.90682099396802</v>
+        <v>19.90682099396801</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>4.576655953943301</v>
+        <v>4.5766559539433</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22807,7 +22807,7 @@
         <v>2808</v>
       </c>
       <c r="B2808">
-        <v>44.33842436803627</v>
+        <v>44.33842436803626</v>
       </c>
     </row>
     <row r="2809" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>36.03279113237375</v>
+        <v>36.03279113237374</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22895,7 +22895,7 @@
         <v>2819</v>
       </c>
       <c r="B2819">
-        <v>0.7125699926908083</v>
+        <v>0.7125699926908082</v>
       </c>
     </row>
     <row r="2820" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>0.8346897637906043</v>
+        <v>0.8346897637906042</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -22983,7 +22983,7 @@
         <v>2830</v>
       </c>
       <c r="B2830">
-        <v>3.541470431183697</v>
+        <v>3.541470431183696</v>
       </c>
     </row>
     <row r="2831" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>51.83606075010947</v>
+        <v>51.83606075010946</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23119,7 +23119,7 @@
         <v>2847</v>
       </c>
       <c r="B2847">
-        <v>1.136488457983285</v>
+        <v>1.136488457983284</v>
       </c>
     </row>
     <row r="2848" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>32.19092288656217</v>
+        <v>32.19092288656216</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>51.51221725238868</v>
+        <v>51.51221725238867</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -23455,7 +23455,7 @@
         <v>2889</v>
       </c>
       <c r="B2889">
-        <v>4.368722052013077</v>
+        <v>4.368722052013076</v>
       </c>
     </row>
     <row r="2890" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>2.258839169061546</v>
+        <v>2.258839169061545</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>0.7218691367475328</v>
+        <v>0.7218691367475327</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>0.6881044223833592</v>
+        <v>0.6881044223833591</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23815,7 +23815,7 @@
         <v>2934</v>
       </c>
       <c r="B2934">
-        <v>54.5897269222676</v>
+        <v>54.58972692226759</v>
       </c>
     </row>
     <row r="2935" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>0.6389271020959856</v>
+        <v>0.6389271020959855</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>0.4751677978231856</v>
+        <v>0.4751677978231855</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23951,7 +23951,7 @@
         <v>2951</v>
       </c>
       <c r="B2951">
-        <v>19.8307250987796</v>
+        <v>19.83072509877959</v>
       </c>
     </row>
     <row r="2952" spans="1:2">
@@ -23959,7 +23959,7 @@
         <v>2952</v>
       </c>
       <c r="B2952">
-        <v>48.62973170518696</v>
+        <v>48.62973170518695</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -24007,7 +24007,7 @@
         <v>2958</v>
       </c>
       <c r="B2958">
-        <v>251.8265652484569</v>
+        <v>251.8265652484568</v>
       </c>
     </row>
     <row r="2959" spans="1:2">
@@ -24039,7 +24039,7 @@
         <v>2962</v>
       </c>
       <c r="B2962">
-        <v>0.9389556472151512</v>
+        <v>0.938955647215151</v>
       </c>
     </row>
     <row r="2963" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>0.6406415676721544</v>
+        <v>0.6406415676721543</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>0.5725582346807373</v>
+        <v>0.5725582346807372</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24111,7 +24111,7 @@
         <v>2971</v>
       </c>
       <c r="B2971">
-        <v>0.5789375119792787</v>
+        <v>0.5789375119792786</v>
       </c>
     </row>
     <row r="2972" spans="1:2">
@@ -24183,7 +24183,7 @@
         <v>2980</v>
       </c>
       <c r="B2980">
-        <v>89.58566202696137</v>
+        <v>89.58566202696136</v>
       </c>
     </row>
     <row r="2981" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>0.6994521330003266</v>
+        <v>0.6994521330003265</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>0.3096500673184176</v>
+        <v>0.3096500673184175</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24775,7 +24775,7 @@
         <v>3054</v>
       </c>
       <c r="B3054">
-        <v>77.54170547415671</v>
+        <v>77.5417054741567</v>
       </c>
     </row>
     <row r="3055" spans="1:2">
@@ -24791,7 +24791,7 @@
         <v>3056</v>
       </c>
       <c r="B3056">
-        <v>1.90431699501369</v>
+        <v>1.904316995013689</v>
       </c>
     </row>
     <row r="3057" spans="1:2">
@@ -24823,7 +24823,7 @@
         <v>3060</v>
       </c>
       <c r="B3060">
-        <v>0.6226411444775746</v>
+        <v>0.6226411444775745</v>
       </c>
     </row>
     <row r="3061" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>54.66200703253265</v>
+        <v>54.66200703253264</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>63.7266801616111</v>
+        <v>63.72668016161109</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>0.6629530658454427</v>
+        <v>0.6629530658454426</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -25535,7 +25535,7 @@
         <v>3149</v>
       </c>
       <c r="B3149">
-        <v>18.87872779034402</v>
+        <v>18.87872779034401</v>
       </c>
     </row>
     <row r="3150" spans="1:2">
@@ -25743,7 +25743,7 @@
         <v>3175</v>
       </c>
       <c r="B3175">
-        <v>0.3266980096373481</v>
+        <v>0.326698009637348</v>
       </c>
     </row>
     <row r="3176" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>1.203850836219595</v>
+        <v>1.203850836219594</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>0.2943576205210686</v>
+        <v>0.2943576205210685</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>0.7382957684645013</v>
+        <v>0.7382957684645012</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>3.295994129200954</v>
+        <v>3.295994129200953</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>0.3820474059989297</v>
+        <v>0.3820474059989296</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>0.9697867204823248</v>
+        <v>0.9697867204823246</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26151,7 +26151,7 @@
         <v>3226</v>
       </c>
       <c r="B3226">
-        <v>0.9241467676315934</v>
+        <v>0.9241467676315932</v>
       </c>
     </row>
     <row r="3227" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>3230</v>
       </c>
       <c r="B3230">
-        <v>0.6658280927347104</v>
+        <v>0.6658280927347103</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>0.1701388746423801</v>
+        <v>0.17013887464238</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>55.71837279925631</v>
+        <v>55.7183727992563</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26327,7 +26327,7 @@
         <v>3248</v>
       </c>
       <c r="B3248">
-        <v>1.945493475945609</v>
+        <v>1.945493475945608</v>
       </c>
     </row>
     <row r="3249" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>0.4476982493694577</v>
+        <v>0.4476982493694576</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>0.854495504583338</v>
+        <v>0.8544955045833379</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26839,7 +26839,7 @@
         <v>3312</v>
       </c>
       <c r="B3312">
-        <v>68.99607050351364</v>
+        <v>68.99607050351362</v>
       </c>
     </row>
     <row r="3313" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>6.423249677182252</v>
+        <v>6.423249677182251</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>0.6547646610252447</v>
+        <v>0.6547646610252446</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>5.872287847340469</v>
+        <v>5.872287847340468</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27127,7 +27127,7 @@
         <v>3348</v>
       </c>
       <c r="B3348">
-        <v>0.5729978412387293</v>
+        <v>0.5729978412387292</v>
       </c>
     </row>
     <row r="3349" spans="1:2">
@@ -27135,7 +27135,7 @@
         <v>3349</v>
       </c>
       <c r="B3349">
-        <v>0.5417828449109094</v>
+        <v>0.5417828449109093</v>
       </c>
     </row>
     <row r="3350" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>46.98552111840598</v>
+        <v>46.98552111840597</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27303,7 +27303,7 @@
         <v>3370</v>
       </c>
       <c r="B3370">
-        <v>22.97421971301312</v>
+        <v>22.97421971301311</v>
       </c>
     </row>
     <row r="3371" spans="1:2">
@@ -27631,7 +27631,7 @@
         <v>3411</v>
       </c>
       <c r="B3411">
-        <v>86.47793673299647</v>
+        <v>86.47793673299645</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>0.5644606818825243</v>
+        <v>0.5644606818825242</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>0.7342836259452274</v>
+        <v>0.7342836259452273</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>0.133997354154663</v>
+        <v>0.1339973541546629</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28271,7 +28271,7 @@
         <v>3491</v>
       </c>
       <c r="B3491">
-        <v>1.446249892296394</v>
+        <v>1.446249892296393</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>0.8178909318545361</v>
+        <v>0.817890931854536</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>1.968109767999105</v>
+        <v>1.968109767999104</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28991,7 +28991,7 @@
         <v>3581</v>
       </c>
       <c r="B3581">
-        <v>0.1856783803253206</v>
+        <v>0.1856783803253205</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>0.3428843231026142</v>
+        <v>0.3428843231026141</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>1.931921356145202</v>
+        <v>1.931921356145201</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>0.5095889913139606</v>
+        <v>0.5095889913139605</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>0.7750673916853402</v>
+        <v>0.7750673916853401</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>0.5501529537750774</v>
+        <v>0.5501529537750773</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>0.0434260942246835</v>
+        <v>0.0434260942246834</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29855,7 +29855,7 @@
         <v>3689</v>
       </c>
       <c r="B3689">
-        <v>0.6351230400141613</v>
+        <v>0.6351230400141612</v>
       </c>
     </row>
     <row r="3690" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>0.8036037187197955</v>
+        <v>0.8036037187197954</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30343,7 +30343,7 @@
         <v>3750</v>
       </c>
       <c r="B3750">
-        <v>0.88963765282922</v>
+        <v>0.8896376528292199</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>0.6677008166717564</v>
+        <v>0.6677008166717563</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>0.5326448899254487</v>
+        <v>0.5326448899254486</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>0.715181255645281</v>
+        <v>0.7151812556452809</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30911,7 +30911,7 @@
         <v>3821</v>
       </c>
       <c r="B3821">
-        <v>19.76321618502396</v>
+        <v>19.76321618502395</v>
       </c>
     </row>
     <row r="3822" spans="1:2">
@@ -30951,7 +30951,7 @@
         <v>3826</v>
       </c>
       <c r="B3826">
-        <v>0.8088321060495138</v>
+        <v>0.8088321060495137</v>
       </c>
     </row>
     <row r="3827" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>66.15228791767753</v>
+        <v>66.15228791767751</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31399,7 +31399,7 @@
         <v>3882</v>
       </c>
       <c r="B3882">
-        <v>0.3635956534048115</v>
+        <v>0.3635956534048114</v>
       </c>
     </row>
     <row r="3883" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>0.1334967888206294</v>
+        <v>0.1334967888206293</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>2.555638071334664</v>
+        <v>2.555638071334663</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>0.6189777564943078</v>
+        <v>0.6189777564943076</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>0.5909660266190564</v>
+        <v>0.5909660266190563</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -33319,7 +33319,7 @@
         <v>4122</v>
       </c>
       <c r="B4122">
-        <v>0.639249480238513</v>
+        <v>0.6392494802385129</v>
       </c>
     </row>
     <row r="4123" spans="1:2">
@@ -33415,7 +33415,7 @@
         <v>4134</v>
       </c>
       <c r="B4134">
-        <v>0.5652695579492296</v>
+        <v>0.5652695579492295</v>
       </c>
     </row>
     <row r="4135" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>0.6831573832507558</v>
+        <v>0.6831573832507557</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>0.1513837935232473</v>
+        <v>0.1513837935232472</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>0.1230672697677881</v>
+        <v>0.123067269767788</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33807,7 +33807,7 @@
         <v>4183</v>
       </c>
       <c r="B4183">
-        <v>0.5418443898290283</v>
+        <v>0.5418443898290282</v>
       </c>
     </row>
     <row r="4184" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>0.6339624787010624</v>
+        <v>0.6339624787010623</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -33871,7 +33871,7 @@
         <v>4191</v>
       </c>
       <c r="B4191">
-        <v>0.7384276504318988</v>
+        <v>0.7384276504318987</v>
       </c>
     </row>
     <row r="4192" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>1.051193062891287</v>
+        <v>1.051193062891286</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>0.5201629943888619</v>
+        <v>0.5201629943888618</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>0.8576049883035349</v>
+        <v>0.8576049883035348</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>0.4719850463433234</v>
+        <v>0.4719850463433233</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>0.3872230405416891</v>
+        <v>0.387223040541689</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36487,7 +36487,7 @@
         <v>4518</v>
       </c>
       <c r="B4518">
-        <v>0.3096500673184176</v>
+        <v>0.3096500673184175</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>1.311278956151298</v>
+        <v>1.311278956151297</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>0.423320600373607</v>
+        <v>0.4233206003736069</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>0.9871072188672102</v>
+        <v>0.98710721886721</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>1.197907355555543</v>
+        <v>1.197907355555542</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37727,7 +37727,7 @@
         <v>4673</v>
       </c>
       <c r="B4673">
-        <v>0.9536678133559509</v>
+        <v>0.9536678133559506</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>0.5985975964657978</v>
+        <v>0.5985975964657977</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>0.7664071424928975</v>
+        <v>0.7664071424928974</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -39215,7 +39215,7 @@
         <v>4859</v>
       </c>
       <c r="B4859">
-        <v>0.6862082527632204</v>
+        <v>0.6862082527632203</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>0.7415195498897761</v>
+        <v>0.741519549889776</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39567,7 +39567,7 @@
         <v>4903</v>
       </c>
       <c r="B4903">
-        <v>0.7086252565104266</v>
+        <v>0.7086252565104265</v>
       </c>
     </row>
     <row r="4904" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>0.6360256988132382</v>
+        <v>0.6360256988132381</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40399,7 +40399,7 @@
         <v>5007</v>
       </c>
       <c r="B5007">
-        <v>0.3500821478121368</v>
+        <v>0.3500821478121367</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40551,7 +40551,7 @@
         <v>5026</v>
       </c>
       <c r="B5026">
-        <v>0.6435576245068347</v>
+        <v>0.6435576245068346</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>1.009448024144365</v>
+        <v>1.009448024144364</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40751,7 +40751,7 @@
         <v>5051</v>
       </c>
       <c r="B5051">
-        <v>0.9574220533612026</v>
+        <v>0.9574220533612025</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -41687,7 +41687,7 @@
         <v>5168</v>
       </c>
       <c r="B5168">
-        <v>1.353501700691238</v>
+        <v>1.353501700691237</v>
       </c>
     </row>
     <row r="5169" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>0.5638305791494024</v>
+        <v>0.5638305791494023</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>0.5708144620007023</v>
+        <v>0.5708144620007022</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>0.5228328715510668</v>
+        <v>0.5228328715510667</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>7.492419717585025</v>
+        <v>7.492419717585024</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42247,7 +42247,7 @@
         <v>5238</v>
       </c>
       <c r="B5238">
-        <v>23.18933385539055</v>
+        <v>23.18933385539054</v>
       </c>
     </row>
     <row r="5239" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>0.741710046064906</v>
+        <v>0.7417100460649059</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>0.0434260942246835</v>
+        <v>0.0434260942246834</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>0.6185381499363157</v>
+        <v>0.6185381499363156</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>1.048168569772302</v>
+        <v>1.048168569772301</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>0.8019039066955597</v>
+        <v>0.8019039066955596</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43287,7 +43287,7 @@
         <v>5368</v>
       </c>
       <c r="B5368">
-        <v>0.2274380726241757</v>
+        <v>0.2274380726241756</v>
       </c>
     </row>
     <row r="5369" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>0.5266164186601848</v>
+        <v>0.5266164186601847</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>0.7215555507361653</v>
+        <v>0.7215555507361652</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>0.3484995642033656</v>
+        <v>0.3484995642033655</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>0.0530496679212061</v>
+        <v>0.053049667921206</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>0.5258280575661858</v>
+        <v>0.5258280575661857</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43799,7 +43799,7 @@
         <v>5432</v>
       </c>
       <c r="B5432">
-        <v>0.967184249659012</v>
+        <v>0.9671842496590118</v>
       </c>
     </row>
     <row r="5433" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>0.8854994897633217</v>
+        <v>0.8854994897633216</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>0.09713018977522039</v>
+        <v>0.0971301897752203</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>0.7828835962864383</v>
+        <v>0.7828835962864382</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>0.865693748970588</v>
+        <v>0.8656937489705879</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45351,7 +45351,7 @@
         <v>5626</v>
       </c>
       <c r="B5626">
-        <v>0.6203288139825366</v>
+        <v>0.6203288139825365</v>
       </c>
     </row>
     <row r="5627" spans="1:2">
@@ -45487,7 +45487,7 @@
         <v>5643</v>
       </c>
       <c r="B5643">
-        <v>5.613365446103943</v>
+        <v>5.613365446103942</v>
       </c>
     </row>
     <row r="5644" spans="1:2">
@@ -45711,7 +45711,7 @@
         <v>5671</v>
       </c>
       <c r="B5671">
-        <v>0.8889166980741131</v>
+        <v>0.888916698074113</v>
       </c>
     </row>
     <row r="5672" spans="1:2">
@@ -45727,7 +45727,7 @@
         <v>5673</v>
       </c>
       <c r="B5673">
-        <v>1.10426529728247</v>
+        <v>1.104265297282469</v>
       </c>
     </row>
     <row r="5674" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>0.6386691995819636</v>
+        <v>0.6386691995819634</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>0.7292369426594791</v>
+        <v>0.729236942659479</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>0.6435078024302623</v>
+        <v>0.6435078024302622</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45975,7 +45975,7 @@
         <v>5704</v>
       </c>
       <c r="B5704">
-        <v>0.7487701273862577</v>
+        <v>0.7487701273862576</v>
       </c>
     </row>
     <row r="5705" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>0.4371975140542217</v>
+        <v>0.4371975140542216</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>0.2511577771382317</v>
+        <v>0.2511577771382316</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>0.8259533161281096</v>
+        <v>0.8259533161281095</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>7.255278355941811</v>
+        <v>7.25527835594181</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>0.3106494395602528</v>
+        <v>0.3106494395602527</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -47071,7 +47071,7 @@
         <v>5841</v>
       </c>
       <c r="B5841">
-        <v>0.6204606959499341</v>
+        <v>0.620460695949934</v>
       </c>
     </row>
     <row r="5842" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>0.5962032060799346</v>
+        <v>0.5962032060799345</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>0.6795526094752212</v>
+        <v>0.6795526094752211</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>25.8942623138193</v>
+        <v>25.89426231381929</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>0.8233508453047969</v>
+        <v>0.8233508453047967</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>0.6024426884930346</v>
+        <v>0.6024426884930345</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47775,7 +47775,7 @@
         <v>5929</v>
       </c>
       <c r="B5929">
-        <v>16.20378049917032</v>
+        <v>16.20378049917031</v>
       </c>
     </row>
     <row r="5930" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>41.36492560977826</v>
+        <v>41.36492560977825</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>0.6300822181491861</v>
+        <v>0.630082218149186</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>0.073340734353963</v>
+        <v>0.07334073435396291</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>0.8498972199867415</v>
+        <v>0.8498972199867414</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>0.514415871320713</v>
+        <v>0.5144158713207129</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>0.5784636161097634</v>
+        <v>0.5784636161097633</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>0.4065246991479253</v>
+        <v>0.4065246991479252</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>0.8346223574517122</v>
+        <v>0.8346223574517121</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48591,7 +48591,7 @@
         <v>6031</v>
       </c>
       <c r="B6031">
-        <v>0.1372513218969199</v>
+        <v>0.1372513218969198</v>
       </c>
     </row>
     <row r="6032" spans="1:2">
@@ -48631,7 +48631,7 @@
         <v>6036</v>
       </c>
       <c r="B6036">
-        <v>0.5109605637748957</v>
+        <v>0.5109605637748956</v>
       </c>
     </row>
     <row r="6037" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>0.6272071912599183</v>
+        <v>0.6272071912599182</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>0.5291602752757653</v>
+        <v>0.5291602752757651</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>1.91569694344491</v>
+        <v>1.915696943444909</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>0.8160416536005829</v>
+        <v>0.8160416536005828</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49759,7 +49759,7 @@
         <v>6177</v>
       </c>
       <c r="B6177">
-        <v>0.8980575837699605</v>
+        <v>0.8980575837699604</v>
       </c>
     </row>
     <row r="6178" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>0.7825436338815912</v>
+        <v>0.7825436338815911</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49807,7 +49807,7 @@
         <v>6183</v>
       </c>
       <c r="B6183">
-        <v>0.6435927930314742</v>
+        <v>0.6435927930314741</v>
       </c>
     </row>
     <row r="6184" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>0.3841194182422655</v>
+        <v>0.3841194182422654</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>0.4991527316272301</v>
+        <v>0.49915273162723</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>0.8386755299163986</v>
+        <v>0.8386755299163985</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>0.902822918858594</v>
+        <v>0.9028229188585938</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>34.5563971253248</v>
+        <v>34.55639712532479</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -50311,7 +50311,7 @@
         <v>6246</v>
       </c>
       <c r="B6246">
-        <v>0.514855477878705</v>
+        <v>0.5148554778787049</v>
       </c>
     </row>
     <row r="6247" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>0.2802207528291613</v>
+        <v>0.2802207528291612</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>0.3656207742819613</v>
+        <v>0.3656207742819612</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>0.778276519558682</v>
+        <v>0.7782765195586819</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>0.3599732953669572</v>
+        <v>0.3599732953669571</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>0.0795289293352973</v>
+        <v>0.0795289293352972</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -51047,7 +51047,7 @@
         <v>6338</v>
       </c>
       <c r="B6338">
-        <v>66.62383921888363</v>
+        <v>66.62383921888362</v>
       </c>
     </row>
     <row r="6339" spans="1:2">
@@ -51087,7 +51087,7 @@
         <v>6343</v>
       </c>
       <c r="B6343">
-        <v>4.816311865098229</v>
+        <v>4.816311865098228</v>
       </c>
     </row>
     <row r="6344" spans="1:2">
@@ -51119,7 +51119,7 @@
         <v>6347</v>
       </c>
       <c r="B6347">
-        <v>0.8020445807941171</v>
+        <v>0.802044580794117</v>
       </c>
     </row>
     <row r="6348" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>0.4339532176562406</v>
+        <v>0.4339532176562405</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -51527,7 +51527,7 @@
         <v>6398</v>
       </c>
       <c r="B6398">
-        <v>0.556691368647612</v>
+        <v>0.5566913686476119</v>
       </c>
     </row>
     <row r="6399" spans="1:2">
@@ -51591,7 +51591,7 @@
         <v>6406</v>
       </c>
       <c r="B6406">
-        <v>5.337078585826734</v>
+        <v>5.337078585826733</v>
       </c>
     </row>
     <row r="6407" spans="1:2">
@@ -51735,7 +51735,7 @@
         <v>6424</v>
       </c>
       <c r="B6424">
-        <v>0.3715056407382812</v>
+        <v>0.3715056407382811</v>
       </c>
     </row>
     <row r="6425" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>6.489413394870437</v>
+        <v>6.489413394870436</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>0.7364142523962954</v>
+        <v>0.7364142523962953</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -51903,7 +51903,7 @@
         <v>6445</v>
       </c>
       <c r="B6445">
-        <v>0.7482162231231878</v>
+        <v>0.7482162231231877</v>
       </c>
     </row>
     <row r="6446" spans="1:2">
@@ -51999,7 +51999,7 @@
         <v>6457</v>
       </c>
       <c r="B6457">
-        <v>19.64288121654961</v>
+        <v>19.6428812165496</v>
       </c>
     </row>
     <row r="6458" spans="1:2">
@@ -52023,7 +52023,7 @@
         <v>6460</v>
       </c>
       <c r="B6460">
-        <v>27.40885710500912</v>
+        <v>27.40885710500911</v>
       </c>
     </row>
     <row r="6461" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>1.185891442970428</v>
+        <v>1.185891442970427</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>0.6730552245480992</v>
+        <v>0.6730552245480991</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52199,7 +52199,7 @@
         <v>6482</v>
       </c>
       <c r="B6482">
-        <v>0.8524498687334818</v>
+        <v>0.8524498687334817</v>
       </c>
     </row>
     <row r="6483" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>1.638574830707515</v>
+        <v>1.638574830707514</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52247,7 +52247,7 @@
         <v>6488</v>
       </c>
       <c r="B6488">
-        <v>0.6657284485815655</v>
+        <v>0.6657284485815654</v>
       </c>
     </row>
     <row r="6489" spans="1:2">
@@ -52263,7 +52263,7 @@
         <v>6490</v>
       </c>
       <c r="B6490">
-        <v>0.6849392551658168</v>
+        <v>0.6849392551658167</v>
       </c>
     </row>
     <row r="6491" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>0.6956715166015952</v>
+        <v>0.6956715166015951</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52423,7 +52423,7 @@
         <v>6510</v>
       </c>
       <c r="B6510">
-        <v>0.7993424658176594</v>
+        <v>0.7993424658176593</v>
       </c>
     </row>
     <row r="6511" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>0.0556691368647612</v>
+        <v>0.0556691368647611</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52631,7 +52631,7 @@
         <v>6536</v>
       </c>
       <c r="B6536">
-        <v>0.4451661155954237</v>
+        <v>0.4451661155954236</v>
       </c>
     </row>
     <row r="6537" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>0.4902638870246315</v>
+        <v>0.4902638870246314</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>39.88227922519052</v>
+        <v>39.88227922519051</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52951,7 +52951,7 @@
         <v>6576</v>
       </c>
       <c r="B6576">
-        <v>29.70773197598459</v>
+        <v>29.70773197598458</v>
       </c>
     </row>
     <row r="6577" spans="1:2">
@@ -53167,7 +53167,7 @@
         <v>6603</v>
       </c>
       <c r="B6603">
-        <v>0.5924489660746828</v>
+        <v>0.5924489660746827</v>
       </c>
     </row>
     <row r="6604" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>0.6666897215883748</v>
+        <v>0.6666897215883747</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>0.5224342949384874</v>
+        <v>0.5224342949384873</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>4.318108683636262</v>
+        <v>4.318108683636261</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>0.8879202565426645</v>
+        <v>0.8879202565426644</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>0.6147428799856514</v>
+        <v>0.6147428799856512</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -53815,7 +53815,7 @@
         <v>6684</v>
       </c>
       <c r="B6684">
-        <v>1.328382581967574</v>
+        <v>1.328382581967573</v>
       </c>
     </row>
     <row r="6685" spans="1:2">
@@ -53823,7 +53823,7 @@
         <v>6685</v>
       </c>
       <c r="B6685">
-        <v>0.6660185889098403</v>
+        <v>0.6660185889098402</v>
       </c>
     </row>
     <row r="6686" spans="1:2">
@@ -53887,7 +53887,7 @@
         <v>6693</v>
       </c>
       <c r="B6693">
-        <v>0.3135039514768143</v>
+        <v>0.3135039514768142</v>
       </c>
     </row>
     <row r="6694" spans="1:2">
@@ -53927,7 +53927,7 @@
         <v>6698</v>
       </c>
       <c r="B6698">
-        <v>74.4810737653943</v>
+        <v>74.48107376539429</v>
       </c>
     </row>
     <row r="6699" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>0.8345725353751398</v>
+        <v>0.8345725353751396</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54063,7 +54063,7 @@
         <v>6715</v>
       </c>
       <c r="B6715">
-        <v>3.774382777739028</v>
+        <v>3.774382777739027</v>
       </c>
     </row>
     <row r="6716" spans="1:2">
@@ -54079,7 +54079,7 @@
         <v>6717</v>
       </c>
       <c r="B6717">
-        <v>29.13105609321066</v>
+        <v>29.13105609321065</v>
       </c>
     </row>
     <row r="6718" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>199.3627785713491</v>
+        <v>199.362778571349</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54335,7 +54335,7 @@
         <v>6749</v>
       </c>
       <c r="B6749">
-        <v>209.1176598160335</v>
+        <v>209.1176598160334</v>
       </c>
     </row>
     <row r="6750" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>168.8823325641196</v>
+        <v>168.8823325641195</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>0.6256656375965597</v>
+        <v>0.6256656375965596</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54447,7 +54447,7 @@
         <v>6763</v>
       </c>
       <c r="B6763">
-        <v>2.879701372334446</v>
+        <v>2.879701372334445</v>
       </c>
     </row>
     <row r="6764" spans="1:2">
@@ -54719,7 +54719,7 @@
         <v>6797</v>
       </c>
       <c r="B6797">
-        <v>37.59984197609596</v>
+        <v>37.59984197609595</v>
       </c>
     </row>
     <row r="6798" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>0.8134890048538426</v>
+        <v>0.8134890048538425</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>0.9505759138980736</v>
+        <v>0.9505759138980734</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>0.5543702460214142</v>
+        <v>0.554370246021414</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>0.3252854072310004</v>
+        <v>0.3252854072310003</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>8.268032221402276</v>
+        <v>8.268032221402274</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>56.74265607937771</v>
+        <v>56.7426560793777</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55607,7 +55607,7 @@
         <v>6908</v>
       </c>
       <c r="B6908">
-        <v>0.5501772786712863</v>
+        <v>0.5501772786712862</v>
       </c>
     </row>
     <row r="6909" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>45.05410384444728</v>
+        <v>45.05410384444727</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -55703,7 +55703,7 @@
         <v>6920</v>
       </c>
       <c r="B6920">
-        <v>9.325174626378388</v>
+        <v>9.325174626378386</v>
       </c>
     </row>
     <row r="6921" spans="1:2">
@@ -55727,7 +55727,7 @@
         <v>6923</v>
       </c>
       <c r="B6923">
-        <v>0.8908538976396645</v>
+        <v>0.8908538976396644</v>
       </c>
     </row>
     <row r="6924" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>0.8333211220400558</v>
+        <v>0.8333211220400557</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>0.5252105568877262</v>
+        <v>0.5252105568877261</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>0.3756291502522463</v>
+        <v>0.3756291502522462</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -55983,7 +55983,7 @@
         <v>6955</v>
       </c>
       <c r="B6955">
-        <v>0.7531805534470724</v>
+        <v>0.7531805534470722</v>
       </c>
     </row>
     <row r="6956" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>72.22589212289525</v>
+        <v>72.22589212289523</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56135,7 +56135,7 @@
         <v>6974</v>
       </c>
       <c r="B6974">
-        <v>0.5789354604820082</v>
+        <v>0.5789354604820081</v>
       </c>
     </row>
     <row r="6975" spans="1:2">
@@ -56207,7 +56207,7 @@
         <v>6983</v>
       </c>
       <c r="B6983">
-        <v>86.05994123339534</v>
+        <v>86.05994123339532</v>
       </c>
     </row>
     <row r="6984" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>0.9553090111724544</v>
+        <v>0.955309011172454</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56423,7 +56423,7 @@
         <v>7010</v>
       </c>
       <c r="B7010">
-        <v>49.74206817887416</v>
+        <v>49.74206817887415</v>
       </c>
     </row>
     <row r="7011" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>1.457711900618439</v>
+        <v>1.457711900618438</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56519,7 +56519,7 @@
         <v>7022</v>
       </c>
       <c r="B7022">
-        <v>0.9633889797083476</v>
+        <v>0.9633889797083474</v>
       </c>
     </row>
     <row r="7023" spans="1:2">
@@ -56527,7 +56527,7 @@
         <v>7023</v>
       </c>
       <c r="B7023">
-        <v>0.8584578250260394</v>
+        <v>0.8584578250260393</v>
       </c>
     </row>
     <row r="7024" spans="1:2">
@@ -56583,7 +56583,7 @@
         <v>7030</v>
       </c>
       <c r="B7030">
-        <v>0.2152633155361061</v>
+        <v>0.215263315536106</v>
       </c>
     </row>
     <row r="7031" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>35.82910676050411</v>
+        <v>35.8291067605041</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>16.44087496944735</v>
+        <v>16.44087496944734</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>3.086536257869691</v>
+        <v>3.08653625786969</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>7.947559040626095</v>
+        <v>7.947559040626094</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>0.3561282033397204</v>
+        <v>0.3561282033397203</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>0.4068148394762</v>
+        <v>0.4068148394761999</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>0.231790763690374</v>
+        <v>0.2317907636903739</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>0.7393566856244553</v>
+        <v>0.7393566856244552</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57983,7 +57983,7 @@
         <v>7205</v>
       </c>
       <c r="B7205">
-        <v>173.9078619822974</v>
+        <v>173.9078619822973</v>
       </c>
     </row>
     <row r="7206" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>88.30371068964892</v>
+        <v>88.30371068964891</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>27.16246861941854</v>
+        <v>27.16246861941853</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58255,7 +58255,7 @@
         <v>7239</v>
       </c>
       <c r="B7239">
-        <v>3.739264075176239</v>
+        <v>3.739264075176238</v>
       </c>
     </row>
     <row r="7240" spans="1:2">
@@ -58287,7 +58287,7 @@
         <v>7243</v>
       </c>
       <c r="B7243">
-        <v>12.16186196236851</v>
+        <v>12.1618619623685</v>
       </c>
     </row>
     <row r="7244" spans="1:2">
@@ -58327,7 +58327,7 @@
         <v>7248</v>
       </c>
       <c r="B7248">
-        <v>91.84348130880838</v>
+        <v>91.84348130880836</v>
       </c>
     </row>
     <row r="7249" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>136.6834029767812</v>
+        <v>136.6834029767811</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>48.38004983379942</v>
+        <v>48.38004983379941</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>3.958657054718122</v>
+        <v>3.958657054718121</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>0.5643200077839668</v>
+        <v>0.5643200077839667</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>0.4434926799646674</v>
+        <v>0.4434926799646673</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>0.5262829038181881</v>
+        <v>0.526282903818188</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>91.81072768952758</v>
+        <v>91.81072768952757</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>16.52026791382071</v>
+        <v>16.5202679138207</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>49.50230676214531</v>
+        <v>49.5023067621453</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>1.773803669366633</v>
+        <v>1.773803669366632</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -58831,7 +58831,7 @@
         <v>7311</v>
       </c>
       <c r="B7311">
-        <v>0.4735559071105482</v>
+        <v>0.4735559071105481</v>
       </c>
     </row>
     <row r="7312" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>119.8785718765515</v>
+        <v>119.8785718765514</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>20.80514527238316</v>
+        <v>20.80514527238315</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59303,7 +59303,7 @@
         <v>7370</v>
       </c>
       <c r="B7370">
-        <v>45.05908605210452</v>
+        <v>45.05908605210451</v>
       </c>
     </row>
     <row r="7371" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>56.15651400205502</v>
+        <v>56.15651400205501</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59375,7 +59375,7 @@
         <v>7379</v>
       </c>
       <c r="B7379">
-        <v>0.7925783862453556</v>
+        <v>0.7925783862453555</v>
       </c>
     </row>
     <row r="7380" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>39.15106698373046</v>
+        <v>39.15106698373045</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>17.70440972269033</v>
+        <v>17.70440972269032</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>9.661901526958728</v>
+        <v>9.661901526958726</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59647,7 +59647,7 @@
         <v>7413</v>
       </c>
       <c r="B7413">
-        <v>32.67857257992194</v>
+        <v>32.67857257992193</v>
       </c>
     </row>
     <row r="7414" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>5.707804657602176</v>
+        <v>5.707804657602175</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>65.23853344907687</v>
+        <v>65.23853344907685</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>469.3611813341884</v>
+        <v>469.3611813341883</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>373.3464199321131</v>
+        <v>373.346419932113</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>26.80339798285066</v>
+        <v>26.80339798285065</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>6.24692641748204</v>
+        <v>6.246926417482039</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>30.82491877536164</v>
+        <v>30.82491877536163</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>0.996274480956537</v>
+        <v>0.9962744809565368</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>0.8868534779619373</v>
+        <v>0.8868534779619371</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>0.4297300639891306</v>
+        <v>0.4297300639891305</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -60831,7 +60831,7 @@
         <v>7561</v>
       </c>
       <c r="B7561">
-        <v>85.83083587963222</v>
+        <v>85.8308358796322</v>
       </c>
     </row>
     <row r="7562" spans="1:2">
@@ -60895,7 +60895,7 @@
         <v>7569</v>
       </c>
       <c r="B7569">
-        <v>10.25528832035713</v>
+        <v>10.25528832035712</v>
       </c>
     </row>
     <row r="7570" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>186.4759379885129</v>
+        <v>186.4759379885128</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>90.33867875369783</v>
+        <v>90.33867875369782</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>80.69242135878285</v>
+        <v>80.69242135878284</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61239,7 +61239,7 @@
         <v>7612</v>
       </c>
       <c r="B7612">
-        <v>96.78260752336804</v>
+        <v>96.782607523368</v>
       </c>
     </row>
     <row r="7613" spans="1:2">
@@ -61287,7 +61287,7 @@
         <v>7618</v>
       </c>
       <c r="B7618">
-        <v>92.9344675573291</v>
+        <v>92.93446755732909</v>
       </c>
     </row>
     <row r="7619" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>288.4117952887073</v>
+        <v>288.4117952887072</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>572.431334920997</v>
+        <v>572.4313349209968</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>125.2436153008873</v>
+        <v>125.2436153008872</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>27.40878603528224</v>
+        <v>27.40878603528223</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -61871,7 +61871,7 @@
         <v>7691</v>
       </c>
       <c r="B7691">
-        <v>6.655904121223561</v>
+        <v>6.65590412122356</v>
       </c>
     </row>
     <row r="7692" spans="1:2">
@@ -61887,7 +61887,7 @@
         <v>7693</v>
       </c>
       <c r="B7693">
-        <v>2.546447363562244</v>
+        <v>2.546447363562243</v>
       </c>
     </row>
     <row r="7694" spans="1:2">
@@ -61999,7 +61999,7 @@
         <v>7707</v>
       </c>
       <c r="B7707">
-        <v>237.582111178257</v>
+        <v>237.5821111782569</v>
       </c>
     </row>
     <row r="7708" spans="1:2">
@@ -62007,7 +62007,7 @@
         <v>7708</v>
       </c>
       <c r="B7708">
-        <v>246.6105162094661</v>
+        <v>246.610516209466</v>
       </c>
     </row>
     <row r="7709" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>253.1386735956476</v>
+        <v>253.1386735956475</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>308.2392233383019</v>
+        <v>308.2392233383018</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>319.3255204502041</v>
+        <v>319.325520450204</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>285.4006075948774</v>
+        <v>285.4006075948773</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>98.63824541886007</v>
+        <v>98.63824541886005</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62559,7 +62559,7 @@
         <v>7777</v>
       </c>
       <c r="B7777">
-        <v>258.4864873736205</v>
+        <v>258.4864873736204</v>
       </c>
     </row>
     <row r="7778" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>356.4655281052196</v>
+        <v>356.4655281052195</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>332.7519780829755</v>
+        <v>332.7519780829754</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>288.0073572553546</v>
+        <v>288.0073572553545</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>248.2516847188658</v>
+        <v>248.2516847188657</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62711,7 +62711,7 @@
         <v>7796</v>
       </c>
       <c r="B7796">
-        <v>299.3742347182503</v>
+        <v>299.3742347182502</v>
       </c>
     </row>
     <row r="7797" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>258.5895370122346</v>
+        <v>258.5895370122345</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62791,7 +62791,7 @@
         <v>7806</v>
       </c>
       <c r="B7806">
-        <v>339.7418981976718</v>
+        <v>339.7418981976717</v>
       </c>
     </row>
     <row r="7807" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>107.1335454386131</v>
+        <v>107.133545438613</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62839,7 +62839,7 @@
         <v>7812</v>
       </c>
       <c r="B7812">
-        <v>78.46607204506731</v>
+        <v>78.46607204506729</v>
       </c>
     </row>
     <row r="7813" spans="1:2">
@@ -62943,7 +62943,7 @@
         <v>7825</v>
       </c>
       <c r="B7825">
-        <v>319.4424499332092</v>
+        <v>319.4424499332091</v>
       </c>
     </row>
     <row r="7826" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>228.2563269641182</v>
+        <v>228.2563269641181</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63175,7 +63175,7 @@
         <v>7854</v>
       </c>
       <c r="B7854">
-        <v>379.2192704758478</v>
+        <v>379.2192704758477</v>
       </c>
     </row>
     <row r="7855" spans="1:2">
@@ -63239,7 +63239,7 @@
         <v>7862</v>
       </c>
       <c r="B7862">
-        <v>39.69383454733127</v>
+        <v>39.69383454733126</v>
       </c>
     </row>
     <row r="7863" spans="1:2">
@@ -63455,7 +63455,7 @@
         <v>7889</v>
       </c>
       <c r="B7889">
-        <v>220.0884371166265</v>
+        <v>220.0884371166264</v>
       </c>
     </row>
     <row r="7890" spans="1:2">
@@ -63583,7 +63583,7 @@
         <v>7905</v>
       </c>
       <c r="B7905">
-        <v>247.4751636948287</v>
+        <v>247.4751636948286</v>
       </c>
     </row>
     <row r="7906" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>86.94986902655283</v>
+        <v>86.94986902655282</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>86.26808028505262</v>
+        <v>86.2680802850526</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>65.85901172928912</v>
+        <v>65.85901172928911</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>68.08432943294858</v>
+        <v>68.08432943294856</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>54.46812002548546</v>
+        <v>54.46812002548545</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>217.5407764389642</v>
+        <v>217.5407764389641</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>560.7805888500538</v>
+        <v>560.7805888500537</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>54.45664336361149</v>
+        <v>54.45664336361148</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64263,7 +64263,7 @@
         <v>7990</v>
       </c>
       <c r="B7990">
-        <v>121.6748892631081</v>
+        <v>121.674889263108</v>
       </c>
     </row>
     <row r="7991" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>500.9384134657937</v>
+        <v>500.9384134657936</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64367,7 +64367,7 @@
         <v>8003</v>
       </c>
       <c r="B8003">
-        <v>88.5194695883114</v>
+        <v>88.51946958831138</v>
       </c>
     </row>
     <row r="8004" spans="1:2">
@@ -64439,7 +64439,7 @@
         <v>8012</v>
       </c>
       <c r="B8012">
-        <v>193.435733331145</v>
+        <v>193.4357333311451</v>
       </c>
     </row>
     <row r="8013" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>64.03620540997416</v>
+        <v>64.03620540997414</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>6.479003511577186</v>
+        <v>6.479003511577185</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64727,7 +64727,7 @@
         <v>8048</v>
       </c>
       <c r="B8048">
-        <v>38.35376722305227</v>
+        <v>38.35376722305226</v>
       </c>
     </row>
     <row r="8049" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>5.983534682905929</v>
+        <v>5.983534682905928</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>196.8479037507818</v>
+        <v>196.8479037507817</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -64951,7 +64951,7 @@
         <v>8076</v>
       </c>
       <c r="B8076">
-        <v>44.82603303145063</v>
+        <v>44.82603303145062</v>
       </c>
     </row>
     <row r="8077" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>8.919704982969643</v>
+        <v>8.919704982969641</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>6.513474527144534</v>
+        <v>6.513474527144533</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65279,7 +65279,7 @@
         <v>8117</v>
       </c>
       <c r="B8117">
-        <v>6.315827418671322</v>
+        <v>6.315827418671321</v>
       </c>
     </row>
     <row r="8118" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>8.989189048990342</v>
+        <v>8.98918904899034</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>60.56144498089471</v>
+        <v>60.5614449808947</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>0.9941526466366289</v>
+        <v>0.9941526466366288</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>0.7133319773913278</v>
+        <v>0.7133319773913277</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>0.487242324616033</v>
+        <v>0.4872423246160329</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>1.169880972128359</v>
+        <v>1.169880972128358</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>68.27705294797228</v>
+        <v>68.27705294797227</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>258.714496641699</v>
+        <v>258.7144966416989</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>530.9002380322977</v>
+        <v>530.9002380322976</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>51.1771198267833</v>
+        <v>51.17711982678329</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66375,7 +66375,7 @@
         <v>8254</v>
       </c>
       <c r="B8254">
-        <v>67.09635472380693</v>
+        <v>67.09635472380691</v>
       </c>
     </row>
     <row r="8255" spans="1:2">
@@ -66399,7 +66399,7 @@
         <v>8257</v>
       </c>
       <c r="B8257">
-        <v>117.2122965574118</v>
+        <v>117.2122965574117</v>
       </c>
     </row>
     <row r="8258" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>70.94065838994979</v>
+        <v>70.94065838994977</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66511,7 +66511,7 @@
         <v>8271</v>
       </c>
       <c r="B8271">
-        <v>26.01565233803283</v>
+        <v>26.01565233803282</v>
       </c>
     </row>
     <row r="8272" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>252.4248111596763</v>
+        <v>252.4248111596762</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>544.6086358656821</v>
+        <v>544.608635865682</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>293.0048046066079</v>
+        <v>293.0048046066078</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>90.71955387554212</v>
+        <v>90.7195538755421</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>173.651624111775</v>
+        <v>173.6516241117749</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66911,7 +66911,7 @@
         <v>8321</v>
       </c>
       <c r="B8321">
-        <v>175.1105317422312</v>
+        <v>175.1105317422311</v>
       </c>
     </row>
     <row r="8322" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>190.1893033760026</v>
+        <v>190.1893033760025</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>226.6159087165775</v>
+        <v>226.6159087165774</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>61.3603419787336</v>
+        <v>61.36034197873359</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>8.56910996083985</v>
+        <v>8.569109960839848</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>55.80978165621478</v>
+        <v>55.80978165621477</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67471,7 +67471,7 @@
         <v>8391</v>
       </c>
       <c r="B8391">
-        <v>8.355475827207661</v>
+        <v>8.355475827207659</v>
       </c>
     </row>
     <row r="8392" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>7.421552209726325</v>
+        <v>7.421552209726324</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>179.1685398790555</v>
+        <v>179.1685398790554</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67551,7 +67551,7 @@
         <v>8401</v>
       </c>
       <c r="B8401">
-        <v>185.490023568773</v>
+        <v>185.4900235687729</v>
       </c>
     </row>
     <row r="8402" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>211.8405388755803</v>
+        <v>211.8405388755802</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>172.0206837816246</v>
+        <v>172.0206837816245</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67751,7 +67751,7 @@
         <v>8426</v>
       </c>
       <c r="B8426">
-        <v>218.0871136078159</v>
+        <v>218.0871136078158</v>
       </c>
     </row>
     <row r="8427" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>205.4269722655154</v>
+        <v>205.4269722655153</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67903,7 +67903,7 @@
         <v>8445</v>
       </c>
       <c r="B8445">
-        <v>180.4198506392759</v>
+        <v>180.4198506392758</v>
       </c>
     </row>
     <row r="8446" spans="1:2">
@@ -68103,7 +68103,7 @@
         <v>8470</v>
       </c>
       <c r="B8470">
-        <v>63.97248414632217</v>
+        <v>63.97248414632216</v>
       </c>
     </row>
     <row r="8471" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>23.44219554754756</v>
+        <v>23.44219554754755</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -68447,7 +68447,7 @@
         <v>8513</v>
       </c>
       <c r="B8513">
-        <v>46.48672300273553</v>
+        <v>46.48672300273552</v>
       </c>
     </row>
     <row r="8514" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>63.63603859393895</v>
+        <v>63.63603859393893</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>34.9117944094941</v>
+        <v>34.91179440949409</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>404.6757139650109</v>
+        <v>404.6757139650108</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>423.0070143622394</v>
+        <v>423.0070143622393</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>427.3726005541388</v>
+        <v>427.3726005541387</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68959,7 +68959,7 @@
         <v>8577</v>
       </c>
       <c r="B8577">
-        <v>437.2655065351912</v>
+        <v>437.2655065351911</v>
       </c>
     </row>
     <row r="8578" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>434.4150976131709</v>
+        <v>434.4150976131708</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>363.1003633494738</v>
+        <v>363.1003633494737</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>317.6666445886485</v>
+        <v>317.6666445886484</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>71.46248895854863</v>
+        <v>71.46248895854862</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69207,7 +69207,7 @@
         <v>8608</v>
       </c>
       <c r="B8608">
-        <v>73.26246973308849</v>
+        <v>73.26246973308848</v>
       </c>
     </row>
     <row r="8609" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>274.3783816734474</v>
+        <v>274.3783816734473</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>266.064835519741</v>
+        <v>266.0648355197409</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>163.243499244756</v>
+        <v>163.2434992447559</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>274.6488246972137</v>
+        <v>274.6488246972136</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>254.1402731773766</v>
+        <v>254.1402731773765</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>185.7044636477615</v>
+        <v>185.7044636477614</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>94.01932862114181</v>
+        <v>94.0193286211418</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69943,7 +69943,7 @@
         <v>8700</v>
       </c>
       <c r="B8700">
-        <v>126.8465087326378</v>
+        <v>126.8465087326377</v>
       </c>
     </row>
     <row r="8701" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>262.6347320832486</v>
+        <v>262.6347320832485</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>441.4367866284581</v>
+        <v>441.436786628458</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>434.1569020281103</v>
+        <v>434.1569020281102</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70255,7 +70255,7 @@
         <v>8739</v>
       </c>
       <c r="B8739">
-        <v>464.960133546611</v>
+        <v>464.9601335466109</v>
       </c>
     </row>
     <row r="8740" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>649.9846723846781</v>
+        <v>649.984672384678</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70319,7 +70319,7 @@
         <v>8747</v>
       </c>
       <c r="B8747">
-        <v>468.2032576604374</v>
+        <v>468.2032576604373</v>
       </c>
     </row>
     <row r="8748" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>446.7484061331563</v>
+        <v>446.7484061331562</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>346.4669114005221</v>
+        <v>346.466911400522</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
